--- a/docs/Defect_Tracker Template_v0.1.xlsx
+++ b/docs/Defect_Tracker Template_v0.1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d79fe2bc3d7eff9/Desktop/AI-Enabled-Recommendation-Engine/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d79fe2bc3d7eff9/Desktop/AI_Ecommerce_project/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="341" documentId="13_ncr:101_{A9B59A9A-789B-4A89-A90D-BB9A1B756E8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{233783FB-CB1A-4448-8F25-039E1C721FB6}"/>
+  <xr:revisionPtr revIDLastSave="514" documentId="13_ncr:101_{A9B59A9A-789B-4A89-A90D-BB9A1B756E8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73CE82B6-2C78-481C-B704-7E737218987E}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="60">
   <si>
     <t>Sl No</t>
   </si>
@@ -71,107 +71,143 @@
     <t>Status(Open/Closed)</t>
   </si>
   <si>
-    <t>Missing values found in the user-item interaction dataset</t>
-  </si>
-  <si>
-    <t>milestone 1</t>
-  </si>
-  <si>
     <t>Prince Kumar Yadav</t>
   </si>
   <si>
-    <t>Cleaned dataset and handled missing values</t>
-  </si>
-  <si>
     <t>Closed</t>
   </si>
   <si>
-    <t>Dataset cleaned successfully</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Closed</t>
   </si>
   <si>
-    <t>Incorrect column format in user-item matrix</t>
-  </si>
-  <si>
-    <t>Corrected column structure and validated matrix format</t>
-  </si>
-  <si>
-    <t>Matrix structure verified</t>
-  </si>
-  <si>
-    <t>Rechecked preprocessing logic and corrected dataset size</t>
-  </si>
-  <si>
-    <t>milestone2</t>
-  </si>
-  <si>
-    <t>Dataset finalized for model training</t>
-  </si>
-  <si>
-    <t>dataset  size was inconsistent after preprocessing</t>
-  </si>
-  <si>
-    <t>incorrect recommendations henerated for some users</t>
-  </si>
-  <si>
-    <t>Fixed item similarity calculation and recommendation</t>
-  </si>
-  <si>
     <t xml:space="preserve">Closed </t>
   </si>
   <si>
-    <t xml:space="preserve">Recommendation output verifiad and corrected </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duplicate items appearing in recommendation list </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Applied filering to remove duplicate items </t>
-  </si>
-  <si>
-    <t>Final recommendation list cleand</t>
-  </si>
-  <si>
-    <t>Precision  and recall values not calculated correctly</t>
-  </si>
-  <si>
-    <t>milestone3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corrected evaluation metric formulas </t>
-  </si>
-  <si>
     <t xml:space="preserve">                Closed </t>
   </si>
   <si>
-    <t xml:space="preserve">Metrices validated with sampal test data </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model acuracy was low for some test scenarios </t>
-  </si>
-  <si>
-    <t>Improvetuned  recommendation logic and fine-tuned parameters</t>
-  </si>
-  <si>
-    <t>Improved F1  score  after refinement</t>
-  </si>
-  <si>
-    <t>Recommendation model was generating duplicate item suggestions for the same user</t>
-  </si>
-  <si>
-    <t>Added duplicate filtering logic and validated unique recommendation</t>
-  </si>
-  <si>
-    <t>issue resolved and output verified</t>
+    <t>Login session not expiring after logout</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>Fixed session handling Logic</t>
+  </si>
+  <si>
+    <t>Session security improved</t>
+  </si>
+  <si>
+    <t>Password stored in plain text initially</t>
+  </si>
+  <si>
+    <t>Implemented password hasing</t>
+  </si>
+  <si>
+    <t>Passwords secured</t>
+  </si>
+  <si>
+    <t>Product image not loading in production</t>
+  </si>
+  <si>
+    <t>Corrected static folder path</t>
+  </si>
+  <si>
+    <t>images working properly</t>
+  </si>
+  <si>
+    <t>Search bar not returing results</t>
+  </si>
+  <si>
+    <t>Fixed search route and query filter</t>
+  </si>
+  <si>
+    <t>Cart total calclation incorrect</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Corrected total calculation logic</t>
+  </si>
+  <si>
+    <t>Total verified</t>
+  </si>
+  <si>
+    <t>Search functioning correctly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duplicate item added to cart </t>
+  </si>
+  <si>
+    <t>Added duplicate check validation</t>
+  </si>
+  <si>
+    <t>Cart clean and validated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Order created even payment failed </t>
+  </si>
+  <si>
+    <t>Added payments verification secured</t>
+  </si>
+  <si>
+    <t>Payment validation secured</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Payment signature mismatch error </t>
+  </si>
+  <si>
+    <t>Updated Razorpay signature verfication</t>
+  </si>
+  <si>
+    <t>Gateway stable</t>
+  </si>
+  <si>
+    <t>Duplicate product suggestions</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>Applied Filtering logic</t>
+  </si>
+  <si>
+    <t>Unique recommendation ensured</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incorrect recommendation for some users </t>
+  </si>
+  <si>
+    <t>Refined similarity calcuation</t>
+  </si>
+  <si>
+    <t>Accuracy improved</t>
+  </si>
+  <si>
+    <t>Deployment stable</t>
+  </si>
+  <si>
+    <t>Data persistence enabled</t>
+  </si>
+  <si>
+    <t>Product URL not loading on laptop</t>
+  </si>
+  <si>
+    <t>Database reset after restart</t>
+  </si>
+  <si>
+    <t>Resolve DNS configuration issue</t>
+  </si>
+  <si>
+    <t>Configured persistent database</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -188,38 +224,58 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="16"/>
       <color theme="0"/>
       <name val="Aptos Display"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color indexed="56"/>
-      <name val="Aptos Display"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
+      <sz val="16"/>
       <color indexed="56"/>
       <name val="Aptos Display"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <name val="Aptos Display"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
+      <sz val="16"/>
       <name val="Aptos Display"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="16"/>
+      <color indexed="8"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <color indexed="56"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
       <color indexed="8"/>
       <name val="Aptos Display"/>
       <family val="2"/>
@@ -277,70 +333,73 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -648,481 +707,571 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.54296875" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="17.54296875" defaultRowHeight="21" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="6.1796875" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.453125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="42.1796875" style="11" customWidth="1"/>
-    <col min="5" max="5" width="16" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.54296875" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.54296875" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="21.81640625" style="11" customWidth="1"/>
-    <col min="11" max="11" width="21.08984375" style="11" customWidth="1"/>
-    <col min="12" max="16384" width="17.54296875" style="11"/>
+    <col min="1" max="1" width="6.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.08984375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="38.81640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="16" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.1796875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="24" style="4" customWidth="1"/>
+    <col min="8" max="8" width="32.1796875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="23.26953125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="15.81640625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="25.26953125" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="17.54296875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="42" x14ac:dyDescent="0.5">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="48" x14ac:dyDescent="0.4">
-      <c r="A2" s="4">
+    <row r="2" spans="1:11" ht="63" x14ac:dyDescent="0.5">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="10">
+        <v>46030</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="12">
+        <v>46031</v>
+      </c>
+      <c r="J2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="6">
+      <c r="K2" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="63" x14ac:dyDescent="0.5">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="12">
         <v>46030</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="8" t="s">
+      <c r="D3" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="12">
+        <v>46032</v>
+      </c>
+      <c r="J3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="K3" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="63" x14ac:dyDescent="0.5">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="12">
+        <v>46034</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="12">
+        <v>46035</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="63" x14ac:dyDescent="0.5">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="12">
+        <v>46034</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="12">
+        <v>46036</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="63" x14ac:dyDescent="0.5">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="12">
+        <v>46037</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="12">
+        <v>46039</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="63" x14ac:dyDescent="0.5">
+      <c r="A7" s="16">
+        <v>6</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="18">
+        <v>46040</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="12">
+        <v>46042</v>
+      </c>
+      <c r="J7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="K7" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="84" x14ac:dyDescent="0.5">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="12">
+        <v>46043</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="12">
+        <v>46045</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="84" x14ac:dyDescent="0.5">
+      <c r="A9" s="16">
+        <v>8</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="18">
+        <v>46047</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="20">
+        <v>46050</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="63" x14ac:dyDescent="0.5">
+      <c r="A10" s="17">
         <v>9</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="9">
-        <v>46025</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="48" x14ac:dyDescent="0.4">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="6">
-        <v>46030</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="8" t="s">
+      <c r="B10" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="22">
+        <v>46054</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="23">
+        <v>46056</v>
+      </c>
+      <c r="J10" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="8" t="s">
+      <c r="K10" s="19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="63" x14ac:dyDescent="0.5">
+      <c r="A11" s="11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="24">
+        <v>46058</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="9">
-        <v>46027</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="64" x14ac:dyDescent="0.4">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="6">
-        <v>46030</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="8" t="s">
+      <c r="H11" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="24">
+        <v>46061</v>
+      </c>
+      <c r="J11" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="9">
-        <v>46029</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="64" x14ac:dyDescent="0.4">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="6">
-        <v>46040</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" s="9">
-        <v>46032</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="48" x14ac:dyDescent="0.4">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="6">
-        <v>46040</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="9">
-        <v>46035</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="48" x14ac:dyDescent="0.4">
-      <c r="A7" s="15">
-        <v>6</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="17">
-        <v>46040</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I7" s="9">
-        <v>46037</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" s="20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="48" x14ac:dyDescent="0.4">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="6">
-        <v>46050</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" s="9">
-        <v>46043</v>
-      </c>
-      <c r="J8" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="64" x14ac:dyDescent="0.4">
-      <c r="A9" s="22">
-        <v>8</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="17">
-        <v>46050</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9" s="23">
-        <v>46043</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" s="18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="18"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="18"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="18"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="18"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="18"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="18"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="18"/>
+      <c r="K11" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="63" x14ac:dyDescent="0.5">
+      <c r="A12" s="17">
+        <v>11</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="22">
+        <v>46063</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12" s="24">
+        <v>46065</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="63" x14ac:dyDescent="0.5">
+      <c r="A13" s="11">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="24">
+        <v>46067</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="I13" s="24">
+        <v>46073</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="19"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1318,18 +1467,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1351,18 +1500,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20D196DE-5AC8-4D3B-8CD7-1A2AE6EEDD72}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B149665-BEBB-4C97-BAA6-72374EAA67F9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20D196DE-5AC8-4D3B-8CD7-1A2AE6EEDD72}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>